--- a/spliced/struggle/2023-04-06_17-41-21/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-41-21/gyroscope_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.07376197725534429</v>
+        <v>0.955545961856842</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.102472648024559</v>
+        <v>0.418595403432846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0461203269660472</v>
+        <v>0.5012149214744568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1244637966156005</v>
+        <v>0.2005165219306945</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4952589869499206</v>
+        <v>3.583182811737061</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25641068816185</v>
+        <v>0.4506658315658569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.955545961856842</v>
+        <v>0.0250454749912023</v>
       </c>
       <c r="B4" t="n">
-        <v>0.418595403432846</v>
+        <v>1.217149019241333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5012149214744568</v>
+        <v>0.2982549667358398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2005165219306945</v>
+        <v>0.4430300295352936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.583182811737061</v>
+        <v>1.049771904945374</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4506658315658569</v>
+        <v>-0.152105450630188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0250454749912023</v>
+        <v>-0.1605048477649688</v>
       </c>
       <c r="B6" t="n">
-        <v>1.217149019241333</v>
+        <v>0.6899722814559937</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2982549667358398</v>
+        <v>-0.2005165219306945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4430300295352936</v>
+        <v>0.2364048510789871</v>
       </c>
       <c r="B7" t="n">
-        <v>1.049771904945374</v>
+        <v>-1.487151384353638</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.152105450630188</v>
+        <v>-0.1020144969224929</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.1605048477649688</v>
+        <v>-1.693776607513428</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6899722814559937</v>
+        <v>-5.596747398376465</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2005165219306945</v>
+        <v>1.112385630607605</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2364048510789871</v>
+        <v>-1.431409955024719</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.487151384353638</v>
+        <v>-1.327410221099854</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1020144969224929</v>
+        <v>1.870163917541504</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.693776607513428</v>
+        <v>0.08170322328805921</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.596747398376465</v>
+        <v>-2.866485118865967</v>
       </c>
       <c r="C10" t="n">
-        <v>1.112385630607605</v>
+        <v>0.2145664244890213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.431409955024719</v>
+        <v>0.2112066596746444</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.327410221099854</v>
+        <v>-2.239890098571777</v>
       </c>
       <c r="C11" t="n">
-        <v>1.870163917541504</v>
+        <v>-0.6490443348884583</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.08170322328805921</v>
+        <v>-0.4173736870288849</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.866485118865967</v>
+        <v>-0.5337435007095337</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2145664244890213</v>
+        <v>-0.0603229440748691</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2112066596746444</v>
+        <v>0.2202169150114059</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.239890098571777</v>
+        <v>1.032209515571594</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6490443348884583</v>
+        <v>0.3608686327934265</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.4173736870288849</v>
+        <v>2.595261096954346</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.5337435007095337</v>
+        <v>7.212944030761719</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0603229440748691</v>
+        <v>-0.4940372705459595</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2202169150114059</v>
+        <v>0.2443460971117019</v>
       </c>
       <c r="B15" t="n">
-        <v>1.032209515571594</v>
+        <v>2.484389066696167</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3608686327934265</v>
+        <v>0.5590944290161133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.595261096954346</v>
+        <v>0.3139847218990326</v>
       </c>
       <c r="B16" t="n">
-        <v>7.212944030761719</v>
+        <v>0.8843801617622375</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.4940372705459595</v>
+        <v>-0.1221730485558509</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2443460971117019</v>
+        <v>-1.060767531394958</v>
       </c>
       <c r="B17" t="n">
-        <v>2.484389066696167</v>
+        <v>1.06214189529419</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5590944290161133</v>
+        <v>0.0241291765123605</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3139847218990326</v>
+        <v>-0.1357648074626922</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8843801617622375</v>
+        <v>-0.5329799056053162</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1221730485558509</v>
+        <v>-0.2561052441596985</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.060767531394958</v>
+        <v>-0.5283984541893005</v>
       </c>
       <c r="B19" t="n">
-        <v>1.06214189529419</v>
+        <v>-2.495231866836548</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0241291765123605</v>
+        <v>0.1453859210014343</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1357648074626922</v>
+        <v>-0.8752171993255615</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.5329799056053162</v>
+        <v>-1.659415483474731</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2561052441596985</v>
+        <v>-0.0487165041267871</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.5283984541893005</v>
+        <v>-0.0806342139840126</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.495231866836548</v>
+        <v>-0.5641340613365173</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1453859210014343</v>
+        <v>0.087353728711605</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/struggle/2023-04-06_17-41-21/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-41-21/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.955545961856842</v>
+        <v>-0.0001527163112768</v>
       </c>
       <c r="B2" t="n">
-        <v>0.418595403432846</v>
+        <v>-0.024892758578062</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5012149214744568</v>
+        <v>0.0048869219608604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2005165219306945</v>
+        <v>-0.0087048299610614</v>
       </c>
       <c r="B3" t="n">
-        <v>3.583182811737061</v>
+        <v>-0.0183259565383195</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4506658315658569</v>
+        <v>0.0035124751739203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0250454749912023</v>
+        <v>-0.0713185146450996</v>
       </c>
       <c r="B4" t="n">
-        <v>1.217149019241333</v>
+        <v>-0.1441642045974731</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2982549667358398</v>
+        <v>0.0519235469400882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4430300295352936</v>
+        <v>-0.09269879758358</v>
       </c>
       <c r="B5" t="n">
-        <v>1.049771904945374</v>
+        <v>0.0145080499351024</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.152105450630188</v>
+        <v>-0.007177666760981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1605048477649688</v>
+        <v>-0.090408056974411</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6899722814559937</v>
+        <v>-0.0394008085131645</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2005165219306945</v>
+        <v>-0.0087048299610614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2364048510789871</v>
+        <v>-0.07376197725534429</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.487151384353638</v>
+        <v>-0.102472648024559</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1020144969224929</v>
+        <v>0.0461203269660472</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.693776607513428</v>
+        <v>-0.1244637966156005</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.596747398376465</v>
+        <v>-0.4952589869499206</v>
       </c>
       <c r="C8" t="n">
-        <v>1.112385630607605</v>
+        <v>0.25641068816185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.431409955024719</v>
+        <v>0.955545961856842</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.327410221099854</v>
+        <v>0.418595403432846</v>
       </c>
       <c r="C9" t="n">
-        <v>1.870163917541504</v>
+        <v>0.5012149214744568</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.08170322328805921</v>
+        <v>0.2005165219306945</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.866485118865967</v>
+        <v>3.583182811737061</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2145664244890213</v>
+        <v>0.4506658315658569</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2112066596746444</v>
+        <v>0.0250454749912023</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.239890098571777</v>
+        <v>1.217149019241333</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6490443348884583</v>
+        <v>0.2982549667358398</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4173736870288849</v>
+        <v>0.4430300295352936</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.5337435007095337</v>
+        <v>1.049771904945374</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0603229440748691</v>
+        <v>-0.152105450630188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2202169150114059</v>
+        <v>-0.1605048477649688</v>
       </c>
       <c r="B13" t="n">
-        <v>1.032209515571594</v>
+        <v>0.6899722814559937</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3608686327934265</v>
+        <v>-0.2005165219306945</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.595261096954346</v>
+        <v>0.2364048510789871</v>
       </c>
       <c r="B14" t="n">
-        <v>7.212944030761719</v>
+        <v>-1.487151384353638</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4940372705459595</v>
+        <v>-0.1020144969224929</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2443460971117019</v>
+        <v>-1.693776607513428</v>
       </c>
       <c r="B15" t="n">
-        <v>2.484389066696167</v>
+        <v>-5.596747398376465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5590944290161133</v>
+        <v>1.112385630607605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3139847218990326</v>
+        <v>-1.431409955024719</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8843801617622375</v>
+        <v>-1.327410221099854</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1221730485558509</v>
+        <v>1.870163917541504</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.060767531394958</v>
+        <v>0.08170322328805921</v>
       </c>
       <c r="B17" t="n">
-        <v>1.06214189529419</v>
+        <v>-2.866485118865967</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0241291765123605</v>
+        <v>0.2145664244890213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1357648074626922</v>
+        <v>0.2112066596746444</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.5329799056053162</v>
+        <v>-2.239890098571777</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2561052441596985</v>
+        <v>-0.6490443348884583</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.5283984541893005</v>
+        <v>-0.4173736870288849</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.495231866836548</v>
+        <v>-0.5337435007095337</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1453859210014343</v>
+        <v>-0.0603229440748691</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.8752171993255615</v>
+        <v>0.2202169150114059</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.659415483474731</v>
+        <v>1.032209515571594</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0487165041267871</v>
+        <v>0.3608686327934265</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2.595261096954346</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.212944030761719</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.4940372705459595</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.2443460971117019</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.484389066696167</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5590944290161133</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.3139847218990326</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8843801617622375</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.1221730485558509</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.060767531394958</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.06214189529419</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0241291765123605</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.1357648074626922</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.5329799056053162</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.2561052441596985</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.5283984541893005</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-2.495231866836548</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1453859210014343</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.8752171993255615</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.659415483474731</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.0487165041267871</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>-0.0806342139840126</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>-0.5641340613365173</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>0.087353728711605</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.1470658034086227</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0910189226269722</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.2229658216238021</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4641048610210418</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.3608686327934265</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3602577745914459</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.2412917762994766</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2144137024879455</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0186313893646001</v>
       </c>
     </row>
   </sheetData>
